--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\it-concept\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5166DCE-C53E-44E6-AE00-5FC7EDACF8B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +18,15 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId3"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId9"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId10"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId12"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId9"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_Sheet10A1D161" hidden="1">Sheet10!$A$1:$D$16</definedName>
@@ -35,12 +37,12 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
-    <pivotCache cacheId="1" r:id="rId15"/>
-    <pivotCache cacheId="2" r:id="rId16"/>
-    <pivotCache cacheId="3" r:id="rId17"/>
-    <pivotCache cacheId="4" r:id="rId18"/>
-    <pivotCache cacheId="5" r:id="rId19"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
+    <pivotCache cacheId="2" r:id="rId17"/>
+    <pivotCache cacheId="3" r:id="rId18"/>
+    <pivotCache cacheId="4" r:id="rId19"/>
+    <pivotCache cacheId="5" r:id="rId20"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,8 +64,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -72,7 +74,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" name="WorksheetConnection_Sheet10!$A$1:$D$16" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="WorksheetConnection_Sheet10!$A$1:$D$16" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range4" autoDelete="1">
@@ -81,7 +83,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="3" name="WorksheetConnection_Sheet3!$A$1:$D$10" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="WorksheetConnection_Sheet3!$A$1:$D$10" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
@@ -90,7 +92,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="4" name="WorksheetConnection_Sheet4!$A$1:$D$10" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="WorksheetConnection_Sheet4!$A$1:$D$10" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range1" autoDelete="1">
@@ -99,7 +101,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="5" name="WorksheetConnection_Sheet6!$A$1:$D$16" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="WorksheetConnection_Sheet6!$A$1:$D$16" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range2" autoDelete="1">
@@ -108,7 +110,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="6" name="WorksheetConnection_Sheet8!$A$1:$D$16" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="WorksheetConnection_Sheet8!$A$1:$D$16" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range3" autoDelete="1">
@@ -121,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -179,11 +181,23 @@
   <si>
     <t>aaaa</t>
   </si>
+  <si>
+    <t>0-8350</t>
+  </si>
+  <si>
+    <t>8351-33950</t>
+  </si>
+  <si>
+    <t>33951-50000</t>
+  </si>
+  <si>
+    <t>50001-60000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2455,7 +2470,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2763,7 +2777,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3207,7 +3220,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6613,7 +6625,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6648,7 +6666,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6683,7 +6707,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6718,7 +6748,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6753,7 +6789,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6788,7 +6830,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6807,7 +6855,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.738017361109" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43353.738017361109" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Sum of markes 3]" caption="Sum of markes 3" numFmtId="0" hierarchy="30" level="32767"/>
@@ -6975,7 +7023,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.74014652778" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43353.74014652778" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Sum of id 4]" caption="Sum of id 4" numFmtId="0" hierarchy="32" level="32767"/>
@@ -7143,7 +7191,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.734618402777" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43353.734618402777" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Sum of id 2]" caption="Sum of id 2" numFmtId="0" hierarchy="28" level="32767"/>
@@ -7311,7 +7359,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.730623611111" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43353.730623611111" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Sum of id]" caption="Sum of id" numFmtId="0" hierarchy="26" level="32767"/>
@@ -7479,7 +7527,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.742942476849" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43353.742942476849" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Sum of id 5]" caption="Sum of id 5" numFmtId="0" hierarchy="34" level="32767"/>
@@ -7647,7 +7695,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.747071412035" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43353.747071412035" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Measures].[Sum of id 2]" caption="Sum of id 2" numFmtId="0" hierarchy="28" level="32767"/>
@@ -7798,7 +7846,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -7945,12 +7993,15 @@
         <x15:activeTabTopLevelEntity name="[Range4]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -8217,12 +8268,15 @@
         <x15:activeTabTopLevelEntity name="[Range2]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -8369,12 +8423,15 @@
         <x15:activeTabTopLevelEntity name="[Range3]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -8521,12 +8578,15 @@
         <x15:activeTabTopLevelEntity name="[Range1]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable7" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -8676,12 +8736,15 @@
         <x15:activeTabTopLevelEntity name="[Range1]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0B00-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="E1:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -8827,6 +8890,9 @@
       <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Sheet3!$A$1:$D$10">
         <x15:activeTabTopLevelEntity name="[Range]"/>
       </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -9094,7 +9160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9311,7 +9377,336 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IF(C2&gt;=100*0.8,"a+",IF(C2&gt;=100*0.7,"a",IF(C2&gt;=100*0.6,"b",IF(C2&gt;=100*0.5,"b-",IF(C2&gt;=100*0.4,"c",IF(C2&gt;=100*0.3,"d","f"))))))</f>
+        <v>c</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D18" si="0">IF(C3&gt;=100*0.8,"a+",IF(C3&gt;=100*0.7,"a",IF(C3&gt;=100*0.6,"b",IF(C3&gt;=100*0.5,"b-",IF(C3&gt;=100*0.4,"c",IF(C3&gt;=100*0.3,"d","f"))))))</f>
+        <v>a+</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b-</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>85</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b-</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9378,8 +9773,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9611,8 +10006,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9898,8 +10293,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -10199,7 +10594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10330,7 +10725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10547,7 +10942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -10678,7 +11073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10809,7 +11204,82 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033EFEBB-F329-4B12-811E-83F255BE8D9F}">
+  <dimension ref="E2:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>8350</v>
+      </c>
+      <c r="F2">
+        <f>IF(E2&lt;=8350,E2*0.1,IF(E2&lt;=33950,8350*0.1+(E2-8950)*0.15,"f"))</f>
+        <v>835</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>40000</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F5" si="0">IF(E3&lt;=8350,E3*0.1,IF(E3&lt;=33950,8350*0.1+(E3-8950)*0.15,"f"))</f>
+        <v>f</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>50000</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11025,8 +11495,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11242,8 +11712,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11371,333 +11841,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>IF(C2&gt;=100*0.8,"a+",IF(C2&gt;=100*0.7,"a",IF(C2&gt;=100*0.6,"b",IF(C2&gt;=100*0.5,"b-",IF(C2&gt;=100*0.4,"c",IF(C2&gt;=100*0.3,"d","f"))))))</f>
-        <v>c</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>95</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D18" si="0">IF(C3&gt;=100*0.8,"a+",IF(C3&gt;=100*0.7,"a",IF(C3&gt;=100*0.6,"b",IF(C3&gt;=100*0.5,"b-",IF(C3&gt;=100*0.4,"c",IF(C3&gt;=100*0.3,"d","f"))))))</f>
-        <v>a+</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>59</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>b-</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>85</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
-        <v>82</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
-        <v>75</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>d</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>c</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1">
-        <v>62</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>d</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1">
-        <v>85</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>b-</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\it-concept\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5166DCE-C53E-44E6-AE00-5FC7EDACF8B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798513FE-F63F-47BD-A3C4-B89EF772A1E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,21 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId5"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId9"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId14"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId7"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId8"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId9"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId10"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId11"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId12"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId13"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId15"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId16"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId17"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId18"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId19"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId20"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_Sheet10A1D161" hidden="1">Sheet10!$A$1:$D$16</definedName>
@@ -37,12 +44,13 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
-    <pivotCache cacheId="1" r:id="rId16"/>
-    <pivotCache cacheId="2" r:id="rId17"/>
-    <pivotCache cacheId="3" r:id="rId18"/>
-    <pivotCache cacheId="4" r:id="rId19"/>
-    <pivotCache cacheId="5" r:id="rId20"/>
+    <pivotCache cacheId="0" r:id="rId22"/>
+    <pivotCache cacheId="1" r:id="rId23"/>
+    <pivotCache cacheId="2" r:id="rId24"/>
+    <pivotCache cacheId="3" r:id="rId25"/>
+    <pivotCache cacheId="4" r:id="rId26"/>
+    <pivotCache cacheId="5" r:id="rId27"/>
+    <pivotCache cacheId="6" r:id="rId28"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -123,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -193,15 +201,140 @@
   <si>
     <t>50001-60000</t>
   </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdul </t>
+  </si>
+  <si>
+    <t>shekh</t>
+  </si>
+  <si>
+    <t>mehid</t>
+  </si>
+  <si>
+    <t>shown</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>arfin</t>
+  </si>
+  <si>
+    <t>fdd</t>
+  </si>
+  <si>
+    <t>ffds</t>
+  </si>
+  <si>
+    <t>dfdf</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>abdul@gmail com</t>
+  </si>
+  <si>
+    <t>gfgf@gmail.com</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>CGPA</t>
+  </si>
+  <si>
+    <t>Shetu</t>
+  </si>
+  <si>
+    <t>Rony</t>
+  </si>
+  <si>
+    <t>Shovo</t>
+  </si>
+  <si>
+    <t>Motin</t>
+  </si>
+  <si>
+    <t>Mamul</t>
+  </si>
+  <si>
+    <t>Sum of ID</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Sum of Marks</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>280001-500000</t>
+  </si>
+  <si>
+    <t>500001-800000</t>
+  </si>
+  <si>
+    <t>800000+</t>
+  </si>
+  <si>
+    <t>0-280000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,10 +357,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,8 +375,19 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1984,6 +2129,877 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
+    <c:name>[Book1.xlsx]Sheet19!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet19!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of ID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet19!$A$4:$A$28</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>A+</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mamul</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Motin</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Rony</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Shetu</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Shovo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet19!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B154-4C01-8657-5D75C533013B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet19!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Marks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-6C4F-4687-A2A9-6476359C7671}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet19!$A$4:$A$28</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>A+</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mamul</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Motin</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Rony</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Shetu</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Shovo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet19!$C$4:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B154-4C01-8657-5D75C533013B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
     <c:name>[Book1.xlsx]Sheet5!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
@@ -2451,7 +3467,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2859,7 +3875,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3542,6 +4558,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -5086,7 +6142,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5109,6 +6165,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -5132,7 +6199,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5183,6 +6250,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5193,12 +6267,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5236,7 +6317,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5580,6 +6661,500 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6105,7 +7680,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6736,22 +8311,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
+      <xdr:colOff>280987</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD5AC06-3E10-4D10-A29A-F7F18D43732F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6792,6 +8367,47 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
@@ -6813,7 +8429,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7845,6 +9461,173 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Windows User" refreshedDate="43355.678025462963" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="14" xr:uid="{7E5F4C59-7F41-472B-AB19-82F2580E116D}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F15" sheet="Sheet18"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Shetu"/>
+        <s v="Rony"/>
+        <s v="Shovo"/>
+        <s v="Motin"/>
+        <s v="Mamul"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Marks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="45" maxValue="85"/>
+    </cacheField>
+    <cacheField name="Grad" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="A"/>
+        <s v="A+"/>
+        <s v="B"/>
+        <s v="F"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CGPA" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CGPA2" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="75"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="78"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="85"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <n v="68"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="45"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
@@ -8431,6 +10214,428 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA303488-55CB-416E-8F38-0BA4C0391F79}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="1"/>
+    <field x="4"/>
+    <field x="3"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="25">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of ID" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Marks" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="14">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -8585,7 +10790,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable7" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -8743,7 +10948,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0B00-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="E1:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -9377,11 +11582,379 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF1D2F8-BA58-4FAC-B34A-5990A8322E18}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IF(C2&gt;=100*0.8,"A+",IF(C2&gt;=100*0.7,"A",IF(C2&gt;=100*0.6,"B","F")))</f>
+        <v>A</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D6" si="0">IF(C3&gt;=100*0.8,"A+",IF(C3&gt;=100*0.7,"A",IF(C3&gt;=100*0.6,"B","F")))</f>
+        <v>A</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87054810-427E-4D67-A884-D426CE5E34C9}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="e">
+        <f>IF(D21000B2&gt;=280000,B2*0.1,"f")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D2">
+        <v>100000</v>
+      </c>
+      <c r="E2">
+        <f>IF(D2&lt;=280000, D2*0.1, IF(D2&lt;=500000, 280000*0.1))</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1">
+        <v>80000</v>
+      </c>
+      <c r="C7" s="1">
+        <f>IF(B7&lt;=280000,B7*0.1,IF(B7&lt;=500000,280000*0.1+(B7-280000)*0.2))</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>400000</v>
+      </c>
+      <c r="C8" s="1">
+        <f>IF(B8&lt;=280000,B8*0.1,IF(B8&lt;=500000,280000*0.1+(B8-280000)*0.2))</f>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E479337-CC0D-408F-8AD4-E5B1007930DB}">
+  <dimension ref="B1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F51463-B818-4FA1-ABF2-79E67F57090B}">
+  <dimension ref="E2:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>8350</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>40000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>50000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9391,6 +11964,571 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>IF(B2&gt;=100*0.8,"a+",IF(B2&gt;=100*0.7,"a",IF(B2&gt;=100*0.6,"b","f")))</f>
+        <v>f</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IF(B2&gt;=100*0.8,"5",IF(B2&gt;=100*0.7,"4",IF(B2&gt;=100*0.6,"3","f")))</f>
+        <v>f</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C10" si="0">IF(B3&gt;=100*0.8,"a+",IF(B3&gt;=100*0.7,"a",IF(B3&gt;=100*0.6,"b","f")))</f>
+        <v>a</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D10" si="1">IF(B3&gt;=100*0.8,"5",IF(B3&gt;=100*0.7,"4",IF(B3&gt;=100*0.6,"3","f")))</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>IF(B2&gt;=100*0.8,"a+",IF(B2&gt;=100*0.7,"a",IF(B2&gt;=100*0.6,"b","f")))</f>
+        <v>f</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IF(B2&gt;=100*0.8,"5",IF(B2&gt;=100*0.7,"4",IF(B2&gt;=100*0.6,"3","f")))</f>
+        <v>f</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C10" si="0">IF(B3&gt;=100*0.8,"a+",IF(B3&gt;=100*0.7,"a",IF(B3&gt;=100*0.6,"b","f")))</f>
+        <v>a</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D10" si="1">IF(B3&gt;=100*0.8,"5",IF(B3&gt;=100*0.7,"4",IF(B3&gt;=100*0.6,"3","f")))</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A3:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>108</v>
+      </c>
+      <c r="C12" s="2">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -9705,7 +12843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:B8"/>
   <sheetViews>
@@ -9773,7 +12911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -10000,593 +13138,6 @@
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>IF(B2&gt;=100*0.8,"a+",IF(B2&gt;=100*0.7,"a",IF(B2&gt;=100*0.6,"b","f")))</f>
-        <v>f</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>IF(B2&gt;=100*0.8,"5",IF(B2&gt;=100*0.7,"4",IF(B2&gt;=100*0.6,"3","f")))</f>
-        <v>f</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>78</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C10" si="0">IF(B3&gt;=100*0.8,"a+",IF(B3&gt;=100*0.7,"a",IF(B3&gt;=100*0.6,"b","f")))</f>
-        <v>a</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D10" si="1">IF(B3&gt;=100*0.8,"5",IF(B3&gt;=100*0.7,"4",IF(B3&gt;=100*0.6,"3","f")))</f>
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>65</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>f</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>f</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>90</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>67</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2">
-        <v>48</v>
-      </c>
-      <c r="G8" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>82</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>f</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2">
-        <v>108</v>
-      </c>
-      <c r="G10" s="2">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>IF(C2&gt;=100*0.95,"a+",IF(C2&gt;=100*I6,"a",IF(C2&gt;=100*0.75,"b","f")))</f>
-        <v>a</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D18" si="0">IF(C3&gt;=100*0.95,"a+",IF(C3&gt;=100*0.85,"a+Sheet2!",IF(C3&gt;=100*0.75,"a+","f")))</f>
-        <v>f</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>85</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+Sheet2!</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>91</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+Sheet2!</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>65</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>75</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>75</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>92</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+Sheet2!</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
-        <v>58</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>64</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>75</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1">
-        <v>65</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10721,6 +13272,593 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>IF(B2&gt;=100*0.8,"a+",IF(B2&gt;=100*0.7,"a",IF(B2&gt;=100*0.6,"b","f")))</f>
+        <v>f</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IF(B2&gt;=100*0.8,"5",IF(B2&gt;=100*0.7,"4",IF(B2&gt;=100*0.6,"3","f")))</f>
+        <v>f</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C10" si="0">IF(B3&gt;=100*0.8,"a+",IF(B3&gt;=100*0.7,"a",IF(B3&gt;=100*0.6,"b","f")))</f>
+        <v>a</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D10" si="1">IF(B3&gt;=100*0.8,"5",IF(B3&gt;=100*0.7,"4",IF(B3&gt;=100*0.6,"3","f")))</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>108</v>
+      </c>
+      <c r="G10" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IF(C2&gt;=100*0.95,"a+",IF(C2&gt;=100*I6,"a",IF(C2&gt;=100*0.75,"b","f")))</f>
+        <v>a</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D18" si="0">IF(C3&gt;=100*0.95,"a+",IF(C3&gt;=100*0.85,"a+Sheet2!",IF(C3&gt;=100*0.75,"a+","f")))</f>
+        <v>f</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+Sheet2!</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>91</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+Sheet2!</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+Sheet2!</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>a+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11207,8 +14345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033EFEBB-F329-4B12-811E-83F255BE8D9F}">
   <dimension ref="E2:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11279,190 +14417,228 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081F30C6-DB35-45B4-917B-1053CD494773}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A6C5C9C2-F2E6-458A-8384-93C0B42D0421}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{08D11472-A6D3-4EA8-A756-E69B2018B4C7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C5B4EB-3FEA-413A-AADE-E07B037DB374}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>IF(B2&gt;=100*0.8,"a+",IF(B2&gt;=100*0.7,"a",IF(B2&gt;=100*0.6,"b","f")))</f>
-        <v>f</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1">
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IF(B2&gt;=100*0.8,"5",IF(B2&gt;=100*0.7,"4",IF(B2&gt;=100*0.6,"3","f")))</f>
-        <v>f</v>
+        <f>IF(C2&gt;=100*0.8,"A+",IF(C2&gt;=100*0.7,"A",IF(C2&gt;=100*0.6,"B","F")))</f>
+        <v>A</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1">
         <v>78</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C10" si="0">IF(B3&gt;=100*0.8,"a+",IF(B3&gt;=100*0.7,"a",IF(B3&gt;=100*0.6,"b","f")))</f>
-        <v>a</v>
-      </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D10" si="1">IF(B3&gt;=100*0.8,"5",IF(B3&gt;=100*0.7,"4",IF(B3&gt;=100*0.6,"3","f")))</f>
-        <v>4</v>
+        <f t="shared" ref="D3:D6" si="0">IF(C3&gt;=100*0.8,"A+",IF(C3&gt;=100*0.7,"A",IF(C3&gt;=100*0.6,"B","F")))</f>
+        <v>A</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>65</v>
-      </c>
-      <c r="C4" s="1" t="str">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>A+</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>f</v>
+        <v>B</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="str">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>f</v>
+        <v>F</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>90</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>67</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>82</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>f</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
@@ -11490,222 +14666,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>IF(B2&gt;=100*0.8,"a+",IF(B2&gt;=100*0.7,"a",IF(B2&gt;=100*0.6,"b","f")))</f>
-        <v>f</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>IF(B2&gt;=100*0.8,"5",IF(B2&gt;=100*0.7,"4",IF(B2&gt;=100*0.6,"3","f")))</f>
-        <v>f</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>78</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C10" si="0">IF(B3&gt;=100*0.8,"a+",IF(B3&gt;=100*0.7,"a",IF(B3&gt;=100*0.6,"b","f")))</f>
-        <v>a</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D10" si="1">IF(B3&gt;=100*0.8,"5",IF(B3&gt;=100*0.7,"4",IF(B3&gt;=100*0.6,"3","f")))</f>
-        <v>4</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>65</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>f</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>f</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>90</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>67</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>82</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a+</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>f</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11713,18 +14680,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A3:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9C6249-FEE0-45B9-AE12-FBE5AF46AA69}">
+  <dimension ref="A3:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11732,109 +14699,269 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
+      <c r="A6" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B6" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
+      <c r="A7" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>132</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>132</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
+      <c r="A10" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="2">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>167</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
+      <c r="A11" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>167</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
-        <v>108</v>
-      </c>
-      <c r="C12" s="2">
-        <v>549</v>
+      <c r="B28" s="2">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
